--- a/Outputs/Exp_ER_Run_1_exclusions/Behavior Tables/run_1_exp_ER_inputData.xlsx
+++ b/Outputs/Exp_ER_Run_1_exclusions/Behavior Tables/run_1_exp_ER_inputData.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12605" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44923" uniqueCount="55">
   <si>
     <t>TagNumber</t>
   </si>
@@ -173,6 +173,12 @@
   <si>
     <t>Vehicle</t>
   </si>
+  <si>
+    <t>SessionWeightUpdated</t>
+  </si>
+  <si>
+    <t>{1,6,11,16,21}</t>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y417"/>
+  <dimension ref="A1:Z417"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -246,8 +252,9 @@
     <col min="21" max="21" width="7.7109375" customWidth="true"/>
     <col min="22" max="22" width="15.5703125" customWidth="true"/>
     <col min="23" max="23" width="9.140625" customWidth="true"/>
-    <col min="24" max="24" width="11.42578125" customWidth="true"/>
-    <col min="25" max="25" width="11.7109375" customWidth="true"/>
+    <col min="24" max="24" width="21.85546875" customWidth="true"/>
+    <col min="25" max="25" width="11.42578125" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -321,9 +328,12 @@
         <v>45</v>
       </c>
       <c r="X1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -398,9 +408,12 @@
         <v>1</v>
       </c>
       <c r="X2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Z2" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -475,9 +488,12 @@
         <v>1</v>
       </c>
       <c r="X3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Z3" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -552,9 +568,12 @@
         <v>1</v>
       </c>
       <c r="X4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Z4" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -629,9 +648,12 @@
         <v>1</v>
       </c>
       <c r="X5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Z5" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -706,9 +728,12 @@
         <v>1</v>
       </c>
       <c r="X6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Z6" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -783,9 +808,12 @@
         <v>1</v>
       </c>
       <c r="X7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="Z7" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -818,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>291</v>
+        <v>304.60000000000002</v>
       </c>
       <c r="K8" s="0">
         <v>47</v>
@@ -860,9 +888,12 @@
         <v>1</v>
       </c>
       <c r="X8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="Z8" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -895,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>291</v>
+        <v>318.19999999999999</v>
       </c>
       <c r="K9" s="0">
         <v>62</v>
@@ -937,9 +968,12 @@
         <v>1</v>
       </c>
       <c r="X9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="0" t="s">
+      <c r="Z9" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -972,7 +1006,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="0">
-        <v>291</v>
+        <v>331.80000000000001</v>
       </c>
       <c r="K10" s="0">
         <v>25</v>
@@ -1014,9 +1048,12 @@
         <v>1</v>
       </c>
       <c r="X10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y10" s="0" t="s">
+      <c r="Z10" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1049,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="0">
-        <v>291</v>
+        <v>345.39999999999998</v>
       </c>
       <c r="K11" s="0">
         <v>71</v>
@@ -1091,9 +1128,12 @@
         <v>1</v>
       </c>
       <c r="X11" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="Z11" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1168,9 +1208,12 @@
         <v>1</v>
       </c>
       <c r="X12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="Z12" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1245,9 +1288,12 @@
         <v>1</v>
       </c>
       <c r="X13" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="Z13" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1322,9 +1368,12 @@
         <v>1</v>
       </c>
       <c r="X14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="Z14" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1399,9 +1448,12 @@
         <v>1</v>
       </c>
       <c r="X15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y15" s="0" t="s">
+      <c r="Z15" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1476,9 +1528,12 @@
         <v>1</v>
       </c>
       <c r="X16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y16" s="0" t="s">
+      <c r="Z16" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1553,9 +1608,12 @@
         <v>1</v>
       </c>
       <c r="X17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="Z17" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1630,9 +1688,12 @@
         <v>1</v>
       </c>
       <c r="X18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y18" s="0" t="s">
+      <c r="Z18" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1707,9 +1768,12 @@
         <v>1</v>
       </c>
       <c r="X19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y19" s="0" t="s">
+      <c r="Z19" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1784,9 +1848,12 @@
         <v>1</v>
       </c>
       <c r="X20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y20" s="0" t="s">
+      <c r="Z20" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1861,9 +1928,12 @@
         <v>1</v>
       </c>
       <c r="X21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y21" s="0" t="s">
+      <c r="Z21" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1938,9 +2008,12 @@
         <v>1</v>
       </c>
       <c r="X22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y22" s="0" t="s">
+      <c r="Z22" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1964,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="0">
-        <v>71.995999999999952</v>
+        <v>28.862222222222172</v>
       </c>
       <c r="H23" s="0">
         <v>17</v>
@@ -2015,9 +2088,12 @@
         <v>1</v>
       </c>
       <c r="X23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y23" s="0" t="s">
+      <c r="Z23" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2092,9 +2168,12 @@
         <v>1</v>
       </c>
       <c r="X24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y24" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y24" s="0" t="s">
+      <c r="Z24" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2118,7 +2197,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="0">
-        <v>135.16000000000011</v>
+        <v>83.136000000000109</v>
       </c>
       <c r="H25" s="0">
         <v>15</v>
@@ -2169,9 +2248,12 @@
         <v>1</v>
       </c>
       <c r="X25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y25" s="0" t="s">
+      <c r="Z25" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2195,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="0">
-        <v>524.77999999999997</v>
+        <v>4.4899999999999993</v>
       </c>
       <c r="H26" s="0">
         <v>4</v>
@@ -2204,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="0">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -2246,9 +2328,12 @@
         <v>1</v>
       </c>
       <c r="X26" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y26" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y26" s="0" t="s">
+      <c r="Z26" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2323,9 +2408,12 @@
         <v>1</v>
       </c>
       <c r="X27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y27" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y27" s="0" t="s">
+      <c r="Z27" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2349,7 +2437,7 @@
         <v>28</v>
       </c>
       <c r="G28" s="0">
-        <v>4157.5299999999997</v>
+        <v>270.42000000000002</v>
       </c>
       <c r="H28" s="0">
         <v>2</v>
@@ -2400,9 +2488,12 @@
         <v>10</v>
       </c>
       <c r="X28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y28" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y28" s="0" t="s">
+      <c r="Z28" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2425,9 +2516,7 @@
       <c r="F29" s="0">
         <v>31</v>
       </c>
-      <c r="G29" s="0">
-        <v>454.69</v>
-      </c>
+      <c r="G29" s="0"/>
       <c r="H29" s="0">
         <v>1</v>
       </c>
@@ -2477,9 +2566,12 @@
         <v>10</v>
       </c>
       <c r="X29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y29" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y29" s="0" t="s">
+      <c r="Z29" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2503,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="G30" s="0">
-        <v>413.79000000000036</v>
+        <v>197.91000000000076</v>
       </c>
       <c r="H30" s="0">
         <v>2</v>
@@ -2554,9 +2646,12 @@
         <v>10</v>
       </c>
       <c r="X30" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y30" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y30" s="0" t="s">
+      <c r="Z30" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2631,9 +2726,12 @@
         <v>10</v>
       </c>
       <c r="X31" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y31" s="0" t="s">
+      <c r="Z31" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2708,9 +2806,12 @@
         <v>10</v>
       </c>
       <c r="X32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y32" s="0" t="s">
+      <c r="Z32" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2785,9 +2886,12 @@
         <v>10</v>
       </c>
       <c r="X33" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y33" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y33" s="0" t="s">
+      <c r="Z33" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2811,7 +2915,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="0">
-        <v>1919.9100000000001</v>
+        <v>64.793333333333592</v>
       </c>
       <c r="H34" s="0">
         <v>8</v>
@@ -2820,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="0">
-        <v>275</v>
+        <v>286.19999999999999</v>
       </c>
       <c r="K34" s="0">
         <v>4</v>
@@ -2862,9 +2966,12 @@
         <v>10</v>
       </c>
       <c r="X34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y34" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y34" s="0" t="s">
+      <c r="Z34" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2897,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="0">
-        <v>275</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="K35" s="0">
         <v>1</v>
@@ -2939,9 +3046,12 @@
         <v>10</v>
       </c>
       <c r="X35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y35" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y35" s="0" t="s">
+      <c r="Z35" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2974,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="J36" s="0">
-        <v>275</v>
+        <v>308.60000000000002</v>
       </c>
       <c r="K36" s="0">
         <v>5</v>
@@ -3016,9 +3126,12 @@
         <v>10</v>
       </c>
       <c r="X36" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y36" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y36" s="0" t="s">
+      <c r="Z36" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3051,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>275</v>
+        <v>319.80000000000001</v>
       </c>
       <c r="K37" s="0">
         <v>1</v>
@@ -3093,9 +3206,12 @@
         <v>10</v>
       </c>
       <c r="X37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y37" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y37" s="0" t="s">
+      <c r="Z37" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3170,9 +3286,12 @@
         <v>10</v>
       </c>
       <c r="X38" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y38" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y38" s="0" t="s">
+      <c r="Z38" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3247,9 +3366,12 @@
         <v>10</v>
       </c>
       <c r="X39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y39" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y39" s="0" t="s">
+      <c r="Z39" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3322,9 +3444,12 @@
         <v>10</v>
       </c>
       <c r="X40" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y40" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y40" s="0" t="s">
+      <c r="Z40" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3399,9 +3524,12 @@
         <v>10</v>
       </c>
       <c r="X41" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y41" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y41" s="0" t="s">
+      <c r="Z41" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3476,9 +3604,12 @@
         <v>10</v>
       </c>
       <c r="X42" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y42" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y42" s="0" t="s">
+      <c r="Z42" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3553,9 +3684,12 @@
         <v>10</v>
       </c>
       <c r="X43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y43" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y43" s="0" t="s">
+      <c r="Z43" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3628,9 +3762,12 @@
         <v>10</v>
       </c>
       <c r="X44" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y44" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y44" s="0" t="s">
+      <c r="Z44" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3705,9 +3842,12 @@
         <v>10</v>
       </c>
       <c r="X45" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y45" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y45" s="0" t="s">
+      <c r="Z45" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3782,9 +3922,12 @@
         <v>10</v>
       </c>
       <c r="X46" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y46" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y46" s="0" t="s">
+      <c r="Z46" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3859,9 +4002,12 @@
         <v>10</v>
       </c>
       <c r="X47" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y47" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y47" s="0" t="s">
+      <c r="Z47" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3885,7 +4031,7 @@
         <v>55</v>
       </c>
       <c r="G48" s="0">
-        <v>28.893235294117648</v>
+        <v>8.4778787878787778</v>
       </c>
       <c r="H48" s="0">
         <v>41</v>
@@ -3936,9 +4082,12 @@
         <v>10</v>
       </c>
       <c r="X48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y48" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y48" s="0" t="s">
+      <c r="Z48" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4013,9 +4162,12 @@
         <v>10</v>
       </c>
       <c r="X49" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y49" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y49" s="0" t="s">
+      <c r="Z49" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4090,9 +4242,12 @@
         <v>10</v>
       </c>
       <c r="X50" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y50" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y50" s="0" t="s">
+      <c r="Z50" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4167,9 +4322,12 @@
         <v>10</v>
       </c>
       <c r="X51" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y51" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y51" s="0" t="s">
+      <c r="Z51" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4202,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="0">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="K52" s="0">
         <v>0</v>
@@ -4244,9 +4402,12 @@
         <v>10</v>
       </c>
       <c r="X52" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y52" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y52" s="0" t="s">
+      <c r="Z52" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4321,9 +4482,12 @@
         <v>10</v>
       </c>
       <c r="X53" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y53" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y53" s="0" t="s">
+      <c r="Z53" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4398,9 +4562,12 @@
         <v>11</v>
       </c>
       <c r="X54" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y54" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y54" s="0" t="s">
+      <c r="Z54" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4475,9 +4642,12 @@
         <v>11</v>
       </c>
       <c r="X55" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y55" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y55" s="0" t="s">
+      <c r="Z55" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4552,9 +4722,12 @@
         <v>11</v>
       </c>
       <c r="X56" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y56" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y56" s="0" t="s">
+      <c r="Z56" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4629,9 +4802,12 @@
         <v>11</v>
       </c>
       <c r="X57" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y57" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y57" s="0" t="s">
+      <c r="Z57" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4706,9 +4882,12 @@
         <v>11</v>
       </c>
       <c r="X58" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y58" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y58" s="0" t="s">
+      <c r="Z58" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4783,9 +4962,12 @@
         <v>11</v>
       </c>
       <c r="X59" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y59" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y59" s="0" t="s">
+      <c r="Z59" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4818,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K60" s="0">
         <v>25</v>
@@ -4860,9 +5042,12 @@
         <v>11</v>
       </c>
       <c r="X60" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y60" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y60" s="0" t="s">
+      <c r="Z60" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4895,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K61" s="0">
         <v>36</v>
@@ -4937,9 +5122,12 @@
         <v>11</v>
       </c>
       <c r="X61" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y61" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y61" s="0" t="s">
+      <c r="Z61" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4972,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K62" s="0">
         <v>43</v>
@@ -5014,9 +5202,12 @@
         <v>11</v>
       </c>
       <c r="X62" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y62" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y62" s="0" t="s">
+      <c r="Z62" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5049,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="J63" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K63" s="0">
         <v>53</v>
@@ -5091,9 +5282,12 @@
         <v>11</v>
       </c>
       <c r="X63" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y63" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y63" s="0" t="s">
+      <c r="Z63" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5168,9 +5362,12 @@
         <v>11</v>
       </c>
       <c r="X64" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y64" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y64" s="0" t="s">
+      <c r="Z64" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5203,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="0">
-        <v>238</v>
+        <v>235.59999999999999</v>
       </c>
       <c r="K65" s="0">
         <v>64</v>
@@ -5245,9 +5442,12 @@
         <v>11</v>
       </c>
       <c r="X65" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y65" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y65" s="0" t="s">
+      <c r="Z65" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5280,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="J66" s="0">
-        <v>235</v>
+        <v>236.19999999999999</v>
       </c>
       <c r="K66" s="0">
         <v>59</v>
@@ -5322,9 +5522,12 @@
         <v>11</v>
       </c>
       <c r="X66" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y66" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y66" s="0" t="s">
+      <c r="Z66" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5357,7 +5560,7 @@
         <v>14</v>
       </c>
       <c r="J67" s="0">
-        <v>238</v>
+        <v>236.80000000000001</v>
       </c>
       <c r="K67" s="0">
         <v>74</v>
@@ -5399,9 +5602,12 @@
         <v>11</v>
       </c>
       <c r="X67" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y67" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y67" s="0" t="s">
+      <c r="Z67" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5434,7 +5640,7 @@
         <v>13</v>
       </c>
       <c r="J68" s="0">
-        <v>238</v>
+        <v>237.40000000000001</v>
       </c>
       <c r="K68" s="0">
         <v>62</v>
@@ -5476,9 +5682,12 @@
         <v>11</v>
       </c>
       <c r="X68" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y68" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y68" s="0" t="s">
+      <c r="Z68" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5553,9 +5762,12 @@
         <v>11</v>
       </c>
       <c r="X69" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y69" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y69" s="0" t="s">
+      <c r="Z69" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5630,9 +5842,12 @@
         <v>11</v>
       </c>
       <c r="X70" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y70" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y70" s="0" t="s">
+      <c r="Z70" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5707,9 +5922,12 @@
         <v>11</v>
       </c>
       <c r="X71" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y71" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y71" s="0" t="s">
+      <c r="Z71" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5784,9 +6002,12 @@
         <v>11</v>
       </c>
       <c r="X72" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y72" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y72" s="0" t="s">
+      <c r="Z72" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5861,9 +6082,12 @@
         <v>11</v>
       </c>
       <c r="X73" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y73" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y73" s="0" t="s">
+      <c r="Z73" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5938,9 +6162,12 @@
         <v>11</v>
       </c>
       <c r="X74" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y74" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y74" s="0" t="s">
+      <c r="Z74" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6015,9 +6242,12 @@
         <v>11</v>
       </c>
       <c r="X75" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y75" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y75" s="0" t="s">
+      <c r="Z75" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6092,9 +6322,12 @@
         <v>11</v>
       </c>
       <c r="X76" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y76" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y76" s="0" t="s">
+      <c r="Z76" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6118,7 +6351,7 @@
         <v>65</v>
       </c>
       <c r="G77" s="0">
-        <v>47.396666666666626</v>
+        <v>27.94999999999996</v>
       </c>
       <c r="H77" s="0">
         <v>36</v>
@@ -6169,9 +6402,12 @@
         <v>11</v>
       </c>
       <c r="X77" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y77" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y77" s="0" t="s">
+      <c r="Z77" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6195,7 +6431,7 @@
         <v>46</v>
       </c>
       <c r="G78" s="0">
-        <v>86.87785714285701</v>
+        <v>62.292307692307567</v>
       </c>
       <c r="H78" s="0">
         <v>26</v>
@@ -6246,9 +6482,12 @@
         <v>11</v>
       </c>
       <c r="X78" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y78" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y78" s="0" t="s">
+      <c r="Z78" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6323,9 +6562,12 @@
         <v>11</v>
       </c>
       <c r="X79" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y79" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y79" s="0" t="s">
+      <c r="Z79" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6349,7 +6591,7 @@
         <v>171</v>
       </c>
       <c r="G80" s="0">
-        <v>44.566818181818213</v>
+        <v>24.13047619047622</v>
       </c>
       <c r="H80" s="0">
         <v>76</v>
@@ -6400,9 +6642,12 @@
         <v>12</v>
       </c>
       <c r="X80" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y80" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y80" s="0" t="s">
+      <c r="Z80" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6477,9 +6722,12 @@
         <v>12</v>
       </c>
       <c r="X81" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y81" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y81" s="0" t="s">
+      <c r="Z81" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6554,9 +6802,12 @@
         <v>12</v>
       </c>
       <c r="X82" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y82" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y82" s="0" t="s">
+      <c r="Z82" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6631,9 +6882,12 @@
         <v>12</v>
       </c>
       <c r="X83" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y83" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y83" s="0" t="s">
+      <c r="Z83" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6708,9 +6962,12 @@
         <v>12</v>
       </c>
       <c r="X84" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y84" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y84" s="0" t="s">
+      <c r="Z84" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6785,9 +7042,12 @@
         <v>12</v>
       </c>
       <c r="X85" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y85" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y85" s="0" t="s">
+      <c r="Z85" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6820,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="0">
-        <v>220</v>
+        <v>221.19999999999999</v>
       </c>
       <c r="K86" s="0">
         <v>30</v>
@@ -6862,9 +7122,12 @@
         <v>12</v>
       </c>
       <c r="X86" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y86" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y86" s="0" t="s">
+      <c r="Z86" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6897,7 +7160,7 @@
         <v>5</v>
       </c>
       <c r="J87" s="0">
-        <v>220</v>
+        <v>222.40000000000001</v>
       </c>
       <c r="K87" s="0">
         <v>33</v>
@@ -6939,9 +7202,12 @@
         <v>12</v>
       </c>
       <c r="X87" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y87" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y87" s="0" t="s">
+      <c r="Z87" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6974,7 +7240,7 @@
         <v>21</v>
       </c>
       <c r="J88" s="0">
-        <v>220</v>
+        <v>223.59999999999999</v>
       </c>
       <c r="K88" s="0">
         <v>63</v>
@@ -7016,9 +7282,12 @@
         <v>12</v>
       </c>
       <c r="X88" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y88" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y88" s="0" t="s">
+      <c r="Z88" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7051,7 +7320,7 @@
         <v>37</v>
       </c>
       <c r="J89" s="0">
-        <v>220</v>
+        <v>224.80000000000001</v>
       </c>
       <c r="K89" s="0">
         <v>55</v>
@@ -7093,9 +7362,12 @@
         <v>12</v>
       </c>
       <c r="X89" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y89" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y89" s="0" t="s">
+      <c r="Z89" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7170,9 +7442,12 @@
         <v>12</v>
       </c>
       <c r="X90" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y90" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y90" s="0" t="s">
+      <c r="Z90" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7247,9 +7522,12 @@
         <v>12</v>
       </c>
       <c r="X91" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y91" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y91" s="0" t="s">
+      <c r="Z91" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7324,9 +7602,12 @@
         <v>12</v>
       </c>
       <c r="X92" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y92" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y92" s="0" t="s">
+      <c r="Z92" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7350,7 +7631,7 @@
         <v>102</v>
       </c>
       <c r="G93" s="0">
-        <v>40.667499999999926</v>
+        <v>2.4415254237287538</v>
       </c>
       <c r="H93" s="0">
         <v>82</v>
@@ -7401,9 +7682,12 @@
         <v>12</v>
       </c>
       <c r="X93" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y93" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y93" s="0" t="s">
+      <c r="Z93" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7478,9 +7762,12 @@
         <v>12</v>
       </c>
       <c r="X94" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y94" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y94" s="0" t="s">
+      <c r="Z94" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7555,9 +7842,12 @@
         <v>12</v>
       </c>
       <c r="X95" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y95" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y95" s="0" t="s">
+      <c r="Z95" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7632,9 +7922,12 @@
         <v>12</v>
       </c>
       <c r="X96" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y96" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y96" s="0" t="s">
+      <c r="Z96" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7709,9 +8002,12 @@
         <v>12</v>
       </c>
       <c r="X97" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y97" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y97" s="0" t="s">
+      <c r="Z97" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7786,9 +8082,12 @@
         <v>12</v>
       </c>
       <c r="X98" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y98" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y98" s="0" t="s">
+      <c r="Z98" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7863,9 +8162,12 @@
         <v>12</v>
       </c>
       <c r="X99" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y99" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y99" s="0" t="s">
+      <c r="Z99" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7940,9 +8242,12 @@
         <v>12</v>
       </c>
       <c r="X100" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y100" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y100" s="0" t="s">
+      <c r="Z100" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8017,9 +8322,12 @@
         <v>12</v>
       </c>
       <c r="X101" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y101" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y101" s="0" t="s">
+      <c r="Z101" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8094,9 +8402,12 @@
         <v>12</v>
       </c>
       <c r="X102" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y102" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y102" s="0" t="s">
+      <c r="Z102" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8120,7 +8431,7 @@
         <v>26</v>
       </c>
       <c r="G103" s="0">
-        <v>79.253333333333345</v>
+        <v>19.059230769230723</v>
       </c>
       <c r="H103" s="0">
         <v>32</v>
@@ -8171,9 +8482,12 @@
         <v>12</v>
       </c>
       <c r="X103" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y103" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y103" s="0" t="s">
+      <c r="Z103" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8197,7 +8511,7 @@
         <v>30</v>
       </c>
       <c r="G104" s="0">
-        <v>407.50200000000007</v>
+        <v>78.560000000000073</v>
       </c>
       <c r="H104" s="0">
         <v>10</v>
@@ -8248,9 +8562,12 @@
         <v>12</v>
       </c>
       <c r="X104" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y104" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y104" s="0" t="s">
+      <c r="Z104" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8325,9 +8642,12 @@
         <v>12</v>
       </c>
       <c r="X105" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y105" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y105" s="0" t="s">
+      <c r="Z105" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8402,9 +8722,12 @@
         <v>13</v>
       </c>
       <c r="X106" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y106" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y106" s="0" t="s">
+      <c r="Z106" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8479,9 +8802,12 @@
         <v>13</v>
       </c>
       <c r="X107" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y107" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y107" s="0" t="s">
+      <c r="Z107" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8556,9 +8882,12 @@
         <v>13</v>
       </c>
       <c r="X108" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y108" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y108" s="0" t="s">
+      <c r="Z108" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8633,9 +8962,12 @@
         <v>13</v>
       </c>
       <c r="X109" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y109" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y109" s="0" t="s">
+      <c r="Z109" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8710,9 +9042,12 @@
         <v>13</v>
       </c>
       <c r="X110" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y110" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y110" s="0" t="s">
+      <c r="Z110" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8787,9 +9122,12 @@
         <v>13</v>
       </c>
       <c r="X111" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y111" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y111" s="0" t="s">
+      <c r="Z111" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8822,7 +9160,7 @@
         <v>5</v>
       </c>
       <c r="J112" s="0">
-        <v>280</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="K112" s="0">
         <v>51</v>
@@ -8864,9 +9202,12 @@
         <v>13</v>
       </c>
       <c r="X112" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y112" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y112" s="0" t="s">
+      <c r="Z112" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8899,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="0">
-        <v>280</v>
+        <v>304.80000000000001</v>
       </c>
       <c r="K113" s="0">
         <v>48</v>
@@ -8941,9 +9282,12 @@
         <v>13</v>
       </c>
       <c r="X113" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y113" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y113" s="0" t="s">
+      <c r="Z113" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8976,7 +9320,7 @@
         <v>5</v>
       </c>
       <c r="J114" s="0">
-        <v>280</v>
+        <v>317.19999999999999</v>
       </c>
       <c r="K114" s="0">
         <v>63</v>
@@ -9018,9 +9362,12 @@
         <v>13</v>
       </c>
       <c r="X114" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y114" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y114" s="0" t="s">
+      <c r="Z114" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9053,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="0">
-        <v>280</v>
+        <v>329.60000000000002</v>
       </c>
       <c r="K115" s="0">
         <v>84</v>
@@ -9095,9 +9442,12 @@
         <v>13</v>
       </c>
       <c r="X115" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y115" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y115" s="0" t="s">
+      <c r="Z115" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9172,9 +9522,12 @@
         <v>13</v>
       </c>
       <c r="X116" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y116" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y116" s="0" t="s">
+      <c r="Z116" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9249,9 +9602,12 @@
         <v>13</v>
       </c>
       <c r="X117" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y117" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y117" s="0" t="s">
+      <c r="Z117" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9326,9 +9682,12 @@
         <v>13</v>
       </c>
       <c r="X118" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y118" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y118" s="0" t="s">
+      <c r="Z118" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9403,9 +9762,12 @@
         <v>13</v>
       </c>
       <c r="X119" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y119" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y119" s="0" t="s">
+      <c r="Z119" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9480,9 +9842,12 @@
         <v>13</v>
       </c>
       <c r="X120" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y120" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y120" s="0" t="s">
+      <c r="Z120" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9557,9 +9922,12 @@
         <v>13</v>
       </c>
       <c r="X121" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y121" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y121" s="0" t="s">
+      <c r="Z121" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9583,7 +9951,7 @@
         <v>239</v>
       </c>
       <c r="G122" s="0">
-        <v>14.785196078431342</v>
+        <v>7.2399009900989935</v>
       </c>
       <c r="H122" s="0">
         <v>289</v>
@@ -9592,7 +9960,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="0">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="K122" s="0">
         <v>102</v>
@@ -9634,9 +10002,12 @@
         <v>13</v>
       </c>
       <c r="X122" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y122" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y122" s="0" t="s">
+      <c r="Z122" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9669,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="0">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="K123" s="0">
         <v>105</v>
@@ -9711,9 +10082,12 @@
         <v>13</v>
       </c>
       <c r="X123" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y123" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y123" s="0" t="s">
+      <c r="Z123" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9788,9 +10162,12 @@
         <v>13</v>
       </c>
       <c r="X124" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y124" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y124" s="0" t="s">
+      <c r="Z124" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9865,9 +10242,12 @@
         <v>13</v>
       </c>
       <c r="X125" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y125" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y125" s="0" t="s">
+      <c r="Z125" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9891,7 +10271,7 @@
         <v>33</v>
       </c>
       <c r="G126" s="0">
-        <v>269.54578947368424</v>
+        <v>19.313333333333365</v>
       </c>
       <c r="H126" s="0">
         <v>44</v>
@@ -9942,9 +10322,12 @@
         <v>13</v>
       </c>
       <c r="X126" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y126" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y126" s="0" t="s">
+      <c r="Z126" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10019,9 +10402,12 @@
         <v>13</v>
       </c>
       <c r="X127" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y127" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y127" s="0" t="s">
+      <c r="Z127" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10096,9 +10482,12 @@
         <v>13</v>
       </c>
       <c r="X128" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y128" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y128" s="0" t="s">
+      <c r="Z128" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10173,9 +10562,12 @@
         <v>13</v>
       </c>
       <c r="X129" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y129" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y129" s="0" t="s">
+      <c r="Z129" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10208,7 +10600,7 @@
         <v>6</v>
       </c>
       <c r="J130" s="0">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="K130" s="0">
         <v>0</v>
@@ -10250,9 +10642,12 @@
         <v>13</v>
       </c>
       <c r="X130" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y130" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y130" s="0" t="s">
+      <c r="Z130" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10327,9 +10722,12 @@
         <v>13</v>
       </c>
       <c r="X131" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y131" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y131" s="0" t="s">
+      <c r="Z131" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10404,9 +10802,12 @@
         <v>14</v>
       </c>
       <c r="X132" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y132" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y132" s="0" t="s">
+      <c r="Z132" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10481,9 +10882,12 @@
         <v>14</v>
       </c>
       <c r="X133" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y133" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y133" s="0" t="s">
+      <c r="Z133" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10558,9 +10962,12 @@
         <v>14</v>
       </c>
       <c r="X134" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y134" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y134" s="0" t="s">
+      <c r="Z134" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10633,9 +11040,12 @@
         <v>14</v>
       </c>
       <c r="X135" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y135" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y135" s="0" t="s">
+      <c r="Z135" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10710,9 +11120,12 @@
         <v>14</v>
       </c>
       <c r="X136" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y136" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y136" s="0" t="s">
+      <c r="Z136" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10787,9 +11200,12 @@
         <v>14</v>
       </c>
       <c r="X137" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y137" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y137" s="0" t="s">
+      <c r="Z137" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10822,7 +11238,7 @@
         <v>5</v>
       </c>
       <c r="J138" s="0">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="K138" s="0">
         <v>5</v>
@@ -10864,9 +11280,12 @@
         <v>14</v>
       </c>
       <c r="X138" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y138" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y138" s="0" t="s">
+      <c r="Z138" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10899,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="0">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="K139" s="0">
         <v>1</v>
@@ -10941,9 +11360,12 @@
         <v>14</v>
       </c>
       <c r="X139" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y139" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y139" s="0" t="s">
+      <c r="Z139" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10976,7 +11398,7 @@
         <v>4</v>
       </c>
       <c r="J140" s="0">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="K140" s="0">
         <v>26</v>
@@ -11018,9 +11440,12 @@
         <v>14</v>
       </c>
       <c r="X140" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y140" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y140" s="0" t="s">
+      <c r="Z140" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11053,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="J141" s="0">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="K141" s="0">
         <v>38</v>
@@ -11095,9 +11520,12 @@
         <v>14</v>
       </c>
       <c r="X141" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y141" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y141" s="0" t="s">
+      <c r="Z141" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11172,9 +11600,12 @@
         <v>14</v>
       </c>
       <c r="X142" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y142" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y142" s="0" t="s">
+      <c r="Z142" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11207,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="0">
-        <v>388</v>
+        <v>381.60000000000002</v>
       </c>
       <c r="K143" s="0">
         <v>28</v>
@@ -11249,9 +11680,12 @@
         <v>14</v>
       </c>
       <c r="X143" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y143" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y143" s="0" t="s">
+      <c r="Z143" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11284,7 +11718,7 @@
         <v>3</v>
       </c>
       <c r="J144" s="0">
-        <v>388</v>
+        <v>383.19999999999999</v>
       </c>
       <c r="K144" s="0">
         <v>46</v>
@@ -11326,9 +11760,12 @@
         <v>14</v>
       </c>
       <c r="X144" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y144" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y144" s="0" t="s">
+      <c r="Z144" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11361,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="J145" s="0">
-        <v>388</v>
+        <v>384.80000000000001</v>
       </c>
       <c r="K145" s="0">
         <v>45</v>
@@ -11403,9 +11840,12 @@
         <v>14</v>
       </c>
       <c r="X145" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y145" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y145" s="0" t="s">
+      <c r="Z145" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11438,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="0">
-        <v>388</v>
+        <v>386.39999999999998</v>
       </c>
       <c r="K146" s="0">
         <v>49</v>
@@ -11480,9 +11920,12 @@
         <v>14</v>
       </c>
       <c r="X146" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y146" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y146" s="0" t="s">
+      <c r="Z146" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11557,9 +12000,12 @@
         <v>14</v>
       </c>
       <c r="X147" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y147" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y147" s="0" t="s">
+      <c r="Z147" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11592,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="J148" s="0">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="K148" s="0">
         <v>94</v>
@@ -11634,9 +12080,12 @@
         <v>14</v>
       </c>
       <c r="X148" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y148" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y148" s="0" t="s">
+      <c r="Z148" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11669,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="J149" s="0">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="K149" s="0">
         <v>78</v>
@@ -11711,9 +12160,12 @@
         <v>14</v>
       </c>
       <c r="X149" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y149" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y149" s="0" t="s">
+      <c r="Z149" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11788,9 +12240,12 @@
         <v>14</v>
       </c>
       <c r="X150" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y150" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y150" s="0" t="s">
+      <c r="Z150" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11865,9 +12320,12 @@
         <v>14</v>
       </c>
       <c r="X151" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y151" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y151" s="0" t="s">
+      <c r="Z151" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -11891,7 +12349,7 @@
         <v>69</v>
       </c>
       <c r="G152" s="0">
-        <v>51.117555555555626</v>
+        <v>16.066136363636435</v>
       </c>
       <c r="H152" s="0">
         <v>75</v>
@@ -11942,9 +12400,12 @@
         <v>14</v>
       </c>
       <c r="X152" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y152" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y152" s="0" t="s">
+      <c r="Z152" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12019,9 +12480,12 @@
         <v>14</v>
       </c>
       <c r="X153" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y153" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y153" s="0" t="s">
+      <c r="Z153" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12045,7 +12509,7 @@
         <v>87</v>
       </c>
       <c r="G154" s="0">
-        <v>39.42742857142855</v>
+        <v>27.65176470588235</v>
       </c>
       <c r="H154" s="0">
         <v>57</v>
@@ -12096,9 +12560,12 @@
         <v>14</v>
       </c>
       <c r="X154" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y154" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y154" s="0" t="s">
+      <c r="Z154" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12173,9 +12640,12 @@
         <v>14</v>
       </c>
       <c r="X155" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y155" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y155" s="0" t="s">
+      <c r="Z155" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12199,7 +12669,7 @@
         <v>23</v>
       </c>
       <c r="G156" s="0">
-        <v>197.08090909090922</v>
+        <v>36.17700000000017</v>
       </c>
       <c r="H156" s="0">
         <v>15</v>
@@ -12208,7 +12678,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="0">
-        <v>221</v>
+        <v>388</v>
       </c>
       <c r="K156" s="0">
         <v>0</v>
@@ -12250,9 +12720,12 @@
         <v>14</v>
       </c>
       <c r="X156" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y156" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y156" s="0" t="s">
+      <c r="Z156" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12327,9 +12800,12 @@
         <v>14</v>
       </c>
       <c r="X157" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y157" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y157" s="0" t="s">
+      <c r="Z157" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12352,9 +12828,7 @@
       <c r="F158" s="0">
         <v>1</v>
       </c>
-      <c r="G158" s="0">
-        <v>993.24000000000001</v>
-      </c>
+      <c r="G158" s="0"/>
       <c r="H158" s="0">
         <v>2</v>
       </c>
@@ -12404,9 +12878,12 @@
         <v>15</v>
       </c>
       <c r="X158" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y158" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y158" s="0" t="s">
+      <c r="Z158" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12429,9 +12906,7 @@
       <c r="F159" s="0">
         <v>13</v>
       </c>
-      <c r="G159" s="0">
-        <v>1183.3500000000001</v>
-      </c>
+      <c r="G159" s="0"/>
       <c r="H159" s="0">
         <v>1</v>
       </c>
@@ -12481,9 +12956,12 @@
         <v>15</v>
       </c>
       <c r="X159" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y159" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y159" s="0" t="s">
+      <c r="Z159" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12558,9 +13036,12 @@
         <v>15</v>
       </c>
       <c r="X160" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y160" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y160" s="0" t="s">
+      <c r="Z160" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12633,9 +13114,12 @@
         <v>15</v>
       </c>
       <c r="X161" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y161" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y161" s="0" t="s">
+      <c r="Z161" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12658,9 +13142,7 @@
       <c r="F162" s="0">
         <v>12</v>
       </c>
-      <c r="G162" s="0">
-        <v>491.11000000000007</v>
-      </c>
+      <c r="G162" s="0"/>
       <c r="H162" s="0">
         <v>2</v>
       </c>
@@ -12710,9 +13192,12 @@
         <v>15</v>
       </c>
       <c r="X162" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y162" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y162" s="0" t="s">
+      <c r="Z162" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12735,9 +13220,7 @@
       <c r="F163" s="0">
         <v>7</v>
       </c>
-      <c r="G163" s="0">
-        <v>4147.3900000000003</v>
-      </c>
+      <c r="G163" s="0"/>
       <c r="H163" s="0">
         <v>1</v>
       </c>
@@ -12787,9 +13270,12 @@
         <v>15</v>
       </c>
       <c r="X163" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y163" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y163" s="0" t="s">
+      <c r="Z163" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12822,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="J164" s="0">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K164" s="0">
         <v>3</v>
@@ -12864,9 +13350,12 @@
         <v>15</v>
       </c>
       <c r="X164" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y164" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y164" s="0" t="s">
+      <c r="Z164" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12897,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K165" s="0">
         <v>0</v>
@@ -12939,9 +13428,12 @@
         <v>15</v>
       </c>
       <c r="X165" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y165" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y165" s="0" t="s">
+      <c r="Z165" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12974,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="0">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="K166" s="0">
         <v>1</v>
@@ -13016,9 +13508,12 @@
         <v>15</v>
       </c>
       <c r="X166" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y166" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y166" s="0" t="s">
+      <c r="Z166" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13051,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="K167" s="0">
         <v>2</v>
@@ -13093,9 +13588,12 @@
         <v>15</v>
       </c>
       <c r="X167" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y167" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y167" s="0" t="s">
+      <c r="Z167" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13170,9 +13668,12 @@
         <v>15</v>
       </c>
       <c r="X168" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y168" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y168" s="0" t="s">
+      <c r="Z168" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13247,9 +13748,12 @@
         <v>15</v>
       </c>
       <c r="X169" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y169" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y169" s="0" t="s">
+      <c r="Z169" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13322,9 +13826,12 @@
         <v>15</v>
       </c>
       <c r="X170" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y170" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y170" s="0" t="s">
+      <c r="Z170" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13348,7 +13855,7 @@
         <v>35</v>
       </c>
       <c r="G171" s="0">
-        <v>571.98250000000007</v>
+        <v>12.509999999999991</v>
       </c>
       <c r="H171" s="0">
         <v>4</v>
@@ -13399,9 +13906,12 @@
         <v>15</v>
       </c>
       <c r="X171" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y171" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y171" s="0" t="s">
+      <c r="Z171" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13476,9 +13986,12 @@
         <v>15</v>
       </c>
       <c r="X172" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y172" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y172" s="0" t="s">
+      <c r="Z172" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13551,9 +14064,12 @@
         <v>15</v>
       </c>
       <c r="X173" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y173" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y173" s="0" t="s">
+      <c r="Z173" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13626,9 +14142,12 @@
         <v>15</v>
       </c>
       <c r="X174" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y174" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y174" s="0" t="s">
+      <c r="Z174" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13703,9 +14222,12 @@
         <v>15</v>
       </c>
       <c r="X175" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y175" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y175" s="0" t="s">
+      <c r="Z175" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13778,9 +14300,12 @@
         <v>15</v>
       </c>
       <c r="X176" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y176" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y176" s="0" t="s">
+      <c r="Z176" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13853,9 +14378,12 @@
         <v>15</v>
       </c>
       <c r="X177" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y177" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y177" s="0" t="s">
+      <c r="Z177" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13928,9 +14456,12 @@
         <v>15</v>
       </c>
       <c r="X178" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y178" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y178" s="0" t="s">
+      <c r="Z178" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14003,9 +14534,12 @@
         <v>15</v>
       </c>
       <c r="X179" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y179" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y179" s="0" t="s">
+      <c r="Z179" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14078,9 +14612,12 @@
         <v>15</v>
       </c>
       <c r="X180" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y180" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y180" s="0" t="s">
+      <c r="Z180" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14153,9 +14690,12 @@
         <v>15</v>
       </c>
       <c r="X181" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y181" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y181" s="0" t="s">
+      <c r="Z181" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14179,7 +14719,7 @@
         <v>9</v>
       </c>
       <c r="G182" s="0">
-        <v>2282.3199999999997</v>
+        <v>1.1599999999998545</v>
       </c>
       <c r="H182" s="0">
         <v>5</v>
@@ -14188,7 +14728,7 @@
         <v>1</v>
       </c>
       <c r="J182" s="0">
-        <v>342</v>
+        <v>225</v>
       </c>
       <c r="K182" s="0">
         <v>0</v>
@@ -14230,9 +14770,12 @@
         <v>15</v>
       </c>
       <c r="X182" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y182" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y182" s="0" t="s">
+      <c r="Z182" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14307,9 +14850,12 @@
         <v>15</v>
       </c>
       <c r="X183" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y183" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y183" s="0" t="s">
+      <c r="Z183" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -14384,9 +14930,12 @@
         <v>16</v>
       </c>
       <c r="X184" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y184" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y184" s="0" t="s">
+      <c r="Z184" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14461,9 +15010,12 @@
         <v>16</v>
       </c>
       <c r="X185" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y185" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y185" s="0" t="s">
+      <c r="Z185" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14538,9 +15090,12 @@
         <v>16</v>
       </c>
       <c r="X186" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y186" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y186" s="0" t="s">
+      <c r="Z186" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14613,9 +15168,12 @@
         <v>16</v>
       </c>
       <c r="X187" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y187" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y187" s="0" t="s">
+      <c r="Z187" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14690,9 +15248,12 @@
         <v>16</v>
       </c>
       <c r="X188" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y188" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y188" s="0" t="s">
+      <c r="Z188" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14767,9 +15328,12 @@
         <v>16</v>
       </c>
       <c r="X189" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y189" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y189" s="0" t="s">
+      <c r="Z189" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14802,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="J190" s="0">
-        <v>215</v>
+        <v>216.19999999999999</v>
       </c>
       <c r="K190" s="0">
         <v>4</v>
@@ -14844,9 +15408,12 @@
         <v>16</v>
       </c>
       <c r="X190" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y190" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y190" s="0" t="s">
+      <c r="Z190" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14877,7 +15444,7 @@
         <v>0</v>
       </c>
       <c r="J191" s="0">
-        <v>215</v>
+        <v>217.40000000000001</v>
       </c>
       <c r="K191" s="0">
         <v>0</v>
@@ -14919,9 +15486,12 @@
         <v>16</v>
       </c>
       <c r="X191" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y191" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y191" s="0" t="s">
+      <c r="Z191" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -14954,7 +15524,7 @@
         <v>2</v>
       </c>
       <c r="J192" s="0">
-        <v>215</v>
+        <v>218.59999999999999</v>
       </c>
       <c r="K192" s="0">
         <v>1</v>
@@ -14996,9 +15566,12 @@
         <v>16</v>
       </c>
       <c r="X192" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y192" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y192" s="0" t="s">
+      <c r="Z192" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15031,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="J193" s="0">
-        <v>215</v>
+        <v>219.80000000000001</v>
       </c>
       <c r="K193" s="0">
         <v>7</v>
@@ -15073,9 +15646,12 @@
         <v>16</v>
       </c>
       <c r="X193" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y193" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y193" s="0" t="s">
+      <c r="Z193" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15150,9 +15726,12 @@
         <v>16</v>
       </c>
       <c r="X194" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y194" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y194" s="0" t="s">
+      <c r="Z194" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15227,9 +15806,12 @@
         <v>16</v>
       </c>
       <c r="X195" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y195" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y195" s="0" t="s">
+      <c r="Z195" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15304,9 +15886,12 @@
         <v>16</v>
       </c>
       <c r="X196" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y196" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y196" s="0" t="s">
+      <c r="Z196" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15381,9 +15966,12 @@
         <v>16</v>
       </c>
       <c r="X197" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y197" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y197" s="0" t="s">
+      <c r="Z197" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15458,9 +16046,12 @@
         <v>16</v>
       </c>
       <c r="X198" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y198" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y198" s="0" t="s">
+      <c r="Z198" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15535,9 +16126,12 @@
         <v>16</v>
       </c>
       <c r="X199" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y199" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y199" s="0" t="s">
+      <c r="Z199" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15612,9 +16206,12 @@
         <v>16</v>
       </c>
       <c r="X200" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y200" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y200" s="0" t="s">
+      <c r="Z200" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15689,9 +16286,12 @@
         <v>16</v>
       </c>
       <c r="X201" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y201" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y201" s="0" t="s">
+      <c r="Z201" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15766,9 +16366,12 @@
         <v>16</v>
       </c>
       <c r="X202" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y202" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y202" s="0" t="s">
+      <c r="Z202" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15843,9 +16446,12 @@
         <v>16</v>
       </c>
       <c r="X203" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y203" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y203" s="0" t="s">
+      <c r="Z203" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15920,9 +16526,12 @@
         <v>16</v>
       </c>
       <c r="X204" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y204" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y204" s="0" t="s">
+      <c r="Z204" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15946,7 +16555,7 @@
         <v>61</v>
       </c>
       <c r="G205" s="0">
-        <v>144.29368421052632</v>
+        <v>50.979444444444461</v>
       </c>
       <c r="H205" s="0">
         <v>41</v>
@@ -15997,9 +16606,12 @@
         <v>16</v>
       </c>
       <c r="X205" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y205" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y205" s="0" t="s">
+      <c r="Z205" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16023,7 +16635,7 @@
         <v>31</v>
       </c>
       <c r="G206" s="0">
-        <v>142.86642857142849</v>
+        <v>80.226153846153778</v>
       </c>
       <c r="H206" s="0">
         <v>30</v>
@@ -16074,9 +16686,12 @@
         <v>16</v>
       </c>
       <c r="X206" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y206" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y206" s="0" t="s">
+      <c r="Z206" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16100,7 +16715,7 @@
         <v>13</v>
       </c>
       <c r="G207" s="0">
-        <v>154.7266666666666</v>
+        <v>81.010000000000019</v>
       </c>
       <c r="H207" s="0">
         <v>8</v>
@@ -16151,9 +16766,12 @@
         <v>16</v>
       </c>
       <c r="X207" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y207" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y207" s="0" t="s">
+      <c r="Z207" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16177,7 +16795,7 @@
         <v>50</v>
       </c>
       <c r="G208" s="0">
-        <v>124.67916666666675</v>
+        <v>80.939090909091021</v>
       </c>
       <c r="H208" s="0">
         <v>20</v>
@@ -16186,7 +16804,7 @@
         <v>2</v>
       </c>
       <c r="J208" s="0">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="K208" s="0">
         <v>0</v>
@@ -16228,9 +16846,12 @@
         <v>16</v>
       </c>
       <c r="X208" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y208" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y208" s="0" t="s">
+      <c r="Z208" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16305,9 +16926,12 @@
         <v>16</v>
       </c>
       <c r="X209" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y209" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y209" s="0" t="s">
+      <c r="Z209" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16331,7 +16955,7 @@
         <v>98</v>
       </c>
       <c r="G210" s="0">
-        <v>66.929999999999922</v>
+        <v>30.157999999999927</v>
       </c>
       <c r="H210" s="0">
         <v>39</v>
@@ -16382,9 +17006,12 @@
         <v>2</v>
       </c>
       <c r="X210" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y210" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y210" s="0" t="s">
+      <c r="Z210" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16408,7 +17035,7 @@
         <v>35</v>
       </c>
       <c r="G211" s="0">
-        <v>123.99777777777776</v>
+        <v>22.24000000000003</v>
       </c>
       <c r="H211" s="0">
         <v>25</v>
@@ -16459,9 +17086,12 @@
         <v>2</v>
       </c>
       <c r="X211" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y211" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y211" s="0" t="s">
+      <c r="Z211" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16485,7 +17115,7 @@
         <v>29</v>
       </c>
       <c r="G212" s="0">
-        <v>868.19666666666683</v>
+        <v>48.175999999999966</v>
       </c>
       <c r="H212" s="0">
         <v>22</v>
@@ -16536,9 +17166,12 @@
         <v>2</v>
       </c>
       <c r="X212" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y212" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y212" s="0" t="s">
+      <c r="Z212" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16613,9 +17246,12 @@
         <v>2</v>
       </c>
       <c r="X213" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y213" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y213" s="0" t="s">
+      <c r="Z213" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16639,7 +17275,7 @@
         <v>28</v>
       </c>
       <c r="G214" s="0">
-        <v>901.25999999999988</v>
+        <v>31.394999999999996</v>
       </c>
       <c r="H214" s="0">
         <v>10</v>
@@ -16690,9 +17326,12 @@
         <v>2</v>
       </c>
       <c r="X214" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y214" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y214" s="0" t="s">
+      <c r="Z214" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16767,9 +17406,12 @@
         <v>2</v>
       </c>
       <c r="X215" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y215" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y215" s="0" t="s">
+      <c r="Z215" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16793,7 +17435,7 @@
         <v>13</v>
       </c>
       <c r="G216" s="0">
-        <v>854.19000000000005</v>
+        <v>11.62500000000002</v>
       </c>
       <c r="H216" s="0">
         <v>5</v>
@@ -16802,7 +17444,7 @@
         <v>3</v>
       </c>
       <c r="J216" s="0">
-        <v>261</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="K216" s="0">
         <v>3</v>
@@ -16844,9 +17486,12 @@
         <v>2</v>
       </c>
       <c r="X216" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y216" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y216" s="0" t="s">
+      <c r="Z216" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16879,7 +17524,7 @@
         <v>4</v>
       </c>
       <c r="J217" s="0">
-        <v>261</v>
+        <v>289.80000000000001</v>
       </c>
       <c r="K217" s="0">
         <v>6</v>
@@ -16921,9 +17566,12 @@
         <v>2</v>
       </c>
       <c r="X217" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y217" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y217" s="0" t="s">
+      <c r="Z217" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -16947,7 +17595,7 @@
         <v>21</v>
       </c>
       <c r="G218" s="0">
-        <v>213.74285714285705</v>
+        <v>28.09999999999992</v>
       </c>
       <c r="H218" s="0">
         <v>15</v>
@@ -16956,7 +17604,7 @@
         <v>5</v>
       </c>
       <c r="J218" s="0">
-        <v>261</v>
+        <v>304.19999999999999</v>
       </c>
       <c r="K218" s="0">
         <v>7</v>
@@ -16998,9 +17646,12 @@
         <v>2</v>
       </c>
       <c r="X218" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y218" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y218" s="0" t="s">
+      <c r="Z218" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17033,7 +17684,7 @@
         <v>2</v>
       </c>
       <c r="J219" s="0">
-        <v>261</v>
+        <v>318.60000000000002</v>
       </c>
       <c r="K219" s="0">
         <v>7</v>
@@ -17075,9 +17726,12 @@
         <v>2</v>
       </c>
       <c r="X219" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y219" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y219" s="0" t="s">
+      <c r="Z219" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17101,7 +17755,7 @@
         <v>26</v>
       </c>
       <c r="G220" s="0">
-        <v>571.74599999999998</v>
+        <v>39.224999999999994</v>
       </c>
       <c r="H220" s="0">
         <v>12</v>
@@ -17152,9 +17806,12 @@
         <v>2</v>
       </c>
       <c r="X220" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y220" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y220" s="0" t="s">
+      <c r="Z220" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17229,9 +17886,12 @@
         <v>2</v>
       </c>
       <c r="X221" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y221" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y221" s="0" t="s">
+      <c r="Z221" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17306,9 +17966,12 @@
         <v>2</v>
       </c>
       <c r="X222" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y222" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y222" s="0" t="s">
+      <c r="Z222" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17383,9 +18046,12 @@
         <v>2</v>
       </c>
       <c r="X223" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y223" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y223" s="0" t="s">
+      <c r="Z223" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17460,9 +18126,12 @@
         <v>2</v>
       </c>
       <c r="X224" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y224" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y224" s="0" t="s">
+      <c r="Z224" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17537,9 +18206,12 @@
         <v>2</v>
       </c>
       <c r="X225" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y225" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y225" s="0" t="s">
+      <c r="Z225" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17614,9 +18286,12 @@
         <v>2</v>
       </c>
       <c r="X226" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y226" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y226" s="0" t="s">
+      <c r="Z226" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17691,9 +18366,12 @@
         <v>2</v>
       </c>
       <c r="X227" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y227" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y227" s="0" t="s">
+      <c r="Z227" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17768,9 +18446,12 @@
         <v>2</v>
       </c>
       <c r="X228" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y228" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y228" s="0" t="s">
+      <c r="Z228" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17845,9 +18526,12 @@
         <v>2</v>
       </c>
       <c r="X229" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y229" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y229" s="0" t="s">
+      <c r="Z229" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17922,9 +18606,12 @@
         <v>2</v>
       </c>
       <c r="X230" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y230" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y230" s="0" t="s">
+      <c r="Z230" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17999,9 +18686,12 @@
         <v>2</v>
       </c>
       <c r="X231" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y231" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y231" s="0" t="s">
+      <c r="Z231" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18076,9 +18766,12 @@
         <v>2</v>
       </c>
       <c r="X232" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y232" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y232" s="0" t="s">
+      <c r="Z232" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18102,7 +18795,7 @@
         <v>6</v>
       </c>
       <c r="G233" s="0">
-        <v>933.60999999999979</v>
+        <v>4.3166666666664746</v>
       </c>
       <c r="H233" s="0">
         <v>6</v>
@@ -18153,9 +18846,12 @@
         <v>2</v>
       </c>
       <c r="X233" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y233" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y233" s="0" t="s">
+      <c r="Z233" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18188,7 +18884,7 @@
         <v>1</v>
       </c>
       <c r="J234" s="0">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="K234" s="0">
         <v>0</v>
@@ -18230,9 +18926,12 @@
         <v>2</v>
       </c>
       <c r="X234" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y234" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y234" s="0" t="s">
+      <c r="Z234" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18307,9 +19006,12 @@
         <v>2</v>
       </c>
       <c r="X235" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y235" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y235" s="0" t="s">
+      <c r="Z235" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18384,9 +19086,12 @@
         <v>3</v>
       </c>
       <c r="X236" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y236" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y236" s="0" t="s">
+      <c r="Z236" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18461,9 +19166,12 @@
         <v>3</v>
       </c>
       <c r="X237" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y237" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y237" s="0" t="s">
+      <c r="Z237" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18538,9 +19246,12 @@
         <v>3</v>
       </c>
       <c r="X238" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y238" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y238" s="0" t="s">
+      <c r="Z238" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18615,9 +19326,12 @@
         <v>3</v>
       </c>
       <c r="X239" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y239" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y239" s="0" t="s">
+      <c r="Z239" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18692,9 +19406,12 @@
         <v>3</v>
       </c>
       <c r="X240" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y240" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y240" s="0" t="s">
+      <c r="Z240" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18769,9 +19486,12 @@
         <v>3</v>
       </c>
       <c r="X241" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y241" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y241" s="0" t="s">
+      <c r="Z241" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18795,7 +19515,7 @@
         <v>56</v>
       </c>
       <c r="G242" s="0">
-        <v>87.562222222222161</v>
+        <v>17.163076923076865</v>
       </c>
       <c r="H242" s="0">
         <v>66</v>
@@ -18846,9 +19566,12 @@
         <v>3</v>
       </c>
       <c r="X242" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y242" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y242" s="0" t="s">
+      <c r="Z242" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -18923,9 +19646,12 @@
         <v>3</v>
       </c>
       <c r="X243" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y243" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y243" s="0" t="s">
+      <c r="Z243" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19000,9 +19726,12 @@
         <v>3</v>
       </c>
       <c r="X244" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y244" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y244" s="0" t="s">
+      <c r="Z244" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19077,9 +19806,12 @@
         <v>3</v>
       </c>
       <c r="X245" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y245" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y245" s="0" t="s">
+      <c r="Z245" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19154,9 +19886,12 @@
         <v>3</v>
       </c>
       <c r="X246" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y246" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y246" s="0" t="s">
+      <c r="Z246" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19180,7 +19915,7 @@
         <v>201</v>
       </c>
       <c r="G247" s="0">
-        <v>11.957755102040796</v>
+        <v>7.1227835051546213</v>
       </c>
       <c r="H247" s="0">
         <v>200</v>
@@ -19231,9 +19966,12 @@
         <v>3</v>
       </c>
       <c r="X247" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y247" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y247" s="0" t="s">
+      <c r="Z247" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19308,9 +20046,12 @@
         <v>3</v>
       </c>
       <c r="X248" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y248" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y248" s="0" t="s">
+      <c r="Z248" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19385,9 +20126,12 @@
         <v>3</v>
       </c>
       <c r="X249" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y249" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y249" s="0" t="s">
+      <c r="Z249" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19462,9 +20206,12 @@
         <v>3</v>
       </c>
       <c r="X250" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y250" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y250" s="0" t="s">
+      <c r="Z250" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19539,9 +20286,12 @@
         <v>3</v>
       </c>
       <c r="X251" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y251" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y251" s="0" t="s">
+      <c r="Z251" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19565,7 +20315,7 @@
         <v>149</v>
       </c>
       <c r="G252" s="0">
-        <v>31.726607142857095</v>
+        <v>4.2112727272726858</v>
       </c>
       <c r="H252" s="0">
         <v>108</v>
@@ -19574,7 +20324,7 @@
         <v>12</v>
       </c>
       <c r="J252" s="0">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K252" s="0">
         <v>56</v>
@@ -19616,9 +20366,12 @@
         <v>3</v>
       </c>
       <c r="X252" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y252" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y252" s="0" t="s">
+      <c r="Z252" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19693,9 +20446,12 @@
         <v>3</v>
       </c>
       <c r="X253" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y253" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y253" s="0" t="s">
+      <c r="Z253" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19770,9 +20526,12 @@
         <v>3</v>
       </c>
       <c r="X254" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y254" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y254" s="0" t="s">
+      <c r="Z254" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19847,9 +20606,12 @@
         <v>3</v>
       </c>
       <c r="X255" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y255" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y255" s="0" t="s">
+      <c r="Z255" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19924,9 +20686,12 @@
         <v>3</v>
       </c>
       <c r="X256" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y256" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y256" s="0" t="s">
+      <c r="Z256" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -19950,7 +20715,7 @@
         <v>107</v>
       </c>
       <c r="G257" s="0">
-        <v>64.918947368421129</v>
+        <v>44.958888888888929</v>
       </c>
       <c r="H257" s="0">
         <v>36</v>
@@ -20001,9 +20766,12 @@
         <v>3</v>
       </c>
       <c r="X257" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y257" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y257" s="0" t="s">
+      <c r="Z257" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20027,7 +20795,7 @@
         <v>162</v>
       </c>
       <c r="G258" s="0">
-        <v>73.883225806451648</v>
+        <v>58.84500000000002</v>
       </c>
       <c r="H258" s="0">
         <v>67</v>
@@ -20078,9 +20846,12 @@
         <v>3</v>
       </c>
       <c r="X258" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y258" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y258" s="0" t="s">
+      <c r="Z258" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20155,9 +20926,12 @@
         <v>3</v>
       </c>
       <c r="X259" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y259" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y259" s="0" t="s">
+      <c r="Z259" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20181,7 +20955,7 @@
         <v>54</v>
       </c>
       <c r="G260" s="0">
-        <v>67.383124999999964</v>
+        <v>43.111999999999966</v>
       </c>
       <c r="H260" s="0">
         <v>25</v>
@@ -20232,9 +21006,12 @@
         <v>3</v>
       </c>
       <c r="X260" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y260" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y260" s="0" t="s">
+      <c r="Z260" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20309,9 +21086,12 @@
         <v>3</v>
       </c>
       <c r="X261" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y261" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y261" s="0" t="s">
+      <c r="Z261" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20386,9 +21166,12 @@
         <v>4</v>
       </c>
       <c r="X262" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y262" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y262" s="0" t="s">
+      <c r="Z262" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20463,9 +21246,12 @@
         <v>4</v>
       </c>
       <c r="X263" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y263" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y263" s="0" t="s">
+      <c r="Z263" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20540,9 +21326,12 @@
         <v>4</v>
       </c>
       <c r="X264" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y264" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y264" s="0" t="s">
+      <c r="Z264" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20617,9 +21406,12 @@
         <v>4</v>
       </c>
       <c r="X265" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y265" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y265" s="0" t="s">
+      <c r="Z265" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20694,9 +21486,12 @@
         <v>4</v>
       </c>
       <c r="X266" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y266" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y266" s="0" t="s">
+      <c r="Z266" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20771,9 +21566,12 @@
         <v>4</v>
       </c>
       <c r="X267" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y267" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y267" s="0" t="s">
+      <c r="Z267" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20806,7 +21604,7 @@
         <v>2</v>
       </c>
       <c r="J268" s="0">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K268" s="0">
         <v>26</v>
@@ -20848,9 +21646,12 @@
         <v>4</v>
       </c>
       <c r="X268" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y268" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y268" s="0" t="s">
+      <c r="Z268" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20883,7 +21684,7 @@
         <v>0</v>
       </c>
       <c r="J269" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K269" s="0">
         <v>48</v>
@@ -20925,9 +21726,12 @@
         <v>4</v>
       </c>
       <c r="X269" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y269" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y269" s="0" t="s">
+      <c r="Z269" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -20960,7 +21764,7 @@
         <v>1</v>
       </c>
       <c r="J270" s="0">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K270" s="0">
         <v>56</v>
@@ -21002,9 +21806,12 @@
         <v>4</v>
       </c>
       <c r="X270" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y270" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y270" s="0" t="s">
+      <c r="Z270" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21037,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="J271" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="K271" s="0">
         <v>59</v>
@@ -21079,9 +21886,12 @@
         <v>4</v>
       </c>
       <c r="X271" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y271" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y271" s="0" t="s">
+      <c r="Z271" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21156,9 +21966,12 @@
         <v>4</v>
       </c>
       <c r="X272" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y272" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y272" s="0" t="s">
+      <c r="Z272" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21233,9 +22046,12 @@
         <v>4</v>
       </c>
       <c r="X273" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y273" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y273" s="0" t="s">
+      <c r="Z273" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21310,9 +22126,12 @@
         <v>4</v>
       </c>
       <c r="X274" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y274" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y274" s="0" t="s">
+      <c r="Z274" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21387,9 +22206,12 @@
         <v>4</v>
       </c>
       <c r="X275" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y275" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y275" s="0" t="s">
+      <c r="Z275" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21464,9 +22286,12 @@
         <v>4</v>
       </c>
       <c r="X276" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y276" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y276" s="0" t="s">
+      <c r="Z276" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21541,9 +22366,12 @@
         <v>4</v>
       </c>
       <c r="X277" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y277" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y277" s="0" t="s">
+      <c r="Z277" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21618,9 +22446,12 @@
         <v>4</v>
       </c>
       <c r="X278" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y278" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y278" s="0" t="s">
+      <c r="Z278" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21695,9 +22526,12 @@
         <v>4</v>
       </c>
       <c r="X279" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y279" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y279" s="0" t="s">
+      <c r="Z279" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21772,9 +22606,12 @@
         <v>4</v>
       </c>
       <c r="X280" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y280" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y280" s="0" t="s">
+      <c r="Z280" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21849,9 +22686,12 @@
         <v>4</v>
       </c>
       <c r="X281" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y281" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y281" s="0" t="s">
+      <c r="Z281" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21875,7 +22715,7 @@
         <v>222</v>
       </c>
       <c r="G282" s="0">
-        <v>33.715416666666634</v>
+        <v>25.285052631578914</v>
       </c>
       <c r="H282" s="0">
         <v>180</v>
@@ -21926,9 +22766,12 @@
         <v>4</v>
       </c>
       <c r="X282" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y282" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y282" s="0" t="s">
+      <c r="Z282" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -21952,7 +22795,7 @@
         <v>111</v>
       </c>
       <c r="G283" s="0">
-        <v>62.312916666666638</v>
+        <v>25.830869565217373</v>
       </c>
       <c r="H283" s="0">
         <v>35</v>
@@ -22003,9 +22846,12 @@
         <v>4</v>
       </c>
       <c r="X283" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y283" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y283" s="0" t="s">
+      <c r="Z283" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22080,9 +22926,12 @@
         <v>4</v>
       </c>
       <c r="X284" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y284" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y284" s="0" t="s">
+      <c r="Z284" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22106,7 +22955,7 @@
         <v>59</v>
       </c>
       <c r="G285" s="0">
-        <v>73.205333333333385</v>
+        <v>49.197142857142936</v>
       </c>
       <c r="H285" s="0">
         <v>27</v>
@@ -22157,9 +23006,12 @@
         <v>4</v>
       </c>
       <c r="X285" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y285" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y285" s="0" t="s">
+      <c r="Z285" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22183,7 +23035,7 @@
         <v>78</v>
       </c>
       <c r="G286" s="0">
-        <v>118.30454545454542</v>
+        <v>60.89099999999992</v>
       </c>
       <c r="H286" s="0">
         <v>16</v>
@@ -22234,9 +23086,12 @@
         <v>4</v>
       </c>
       <c r="X286" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y286" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y286" s="0" t="s">
+      <c r="Z286" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22311,9 +23166,12 @@
         <v>4</v>
       </c>
       <c r="X287" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y287" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y287" s="0" t="s">
+      <c r="Z287" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22388,9 +23246,12 @@
         <v>5</v>
       </c>
       <c r="X288" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y288" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y288" s="0" t="s">
+      <c r="Z288" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22465,9 +23326,12 @@
         <v>5</v>
       </c>
       <c r="X289" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y289" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y289" s="0" t="s">
+      <c r="Z289" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22542,9 +23406,12 @@
         <v>5</v>
       </c>
       <c r="X290" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y290" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y290" s="0" t="s">
+      <c r="Z290" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22619,9 +23486,12 @@
         <v>5</v>
       </c>
       <c r="X291" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y291" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y291" s="0" t="s">
+      <c r="Z291" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22696,9 +23566,12 @@
         <v>5</v>
       </c>
       <c r="X292" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y292" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y292" s="0" t="s">
+      <c r="Z292" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22773,9 +23646,12 @@
         <v>5</v>
       </c>
       <c r="X293" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y293" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y293" s="0" t="s">
+      <c r="Z293" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22808,7 +23684,7 @@
         <v>1</v>
       </c>
       <c r="J294" s="0">
-        <v>290</v>
+        <v>302.19999999999999</v>
       </c>
       <c r="K294" s="0">
         <v>77</v>
@@ -22850,9 +23726,12 @@
         <v>5</v>
       </c>
       <c r="X294" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y294" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y294" s="0" t="s">
+      <c r="Z294" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22885,7 +23764,7 @@
         <v>31</v>
       </c>
       <c r="J295" s="0">
-        <v>290</v>
+        <v>314.39999999999998</v>
       </c>
       <c r="K295" s="0">
         <v>29</v>
@@ -22927,9 +23806,12 @@
         <v>5</v>
       </c>
       <c r="X295" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y295" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y295" s="0" t="s">
+      <c r="Z295" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -22962,7 +23844,7 @@
         <v>13</v>
       </c>
       <c r="J296" s="0">
-        <v>290</v>
+        <v>326.60000000000002</v>
       </c>
       <c r="K296" s="0">
         <v>124</v>
@@ -23004,9 +23886,12 @@
         <v>5</v>
       </c>
       <c r="X296" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y296" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y296" s="0" t="s">
+      <c r="Z296" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23039,7 +23924,7 @@
         <v>74</v>
       </c>
       <c r="J297" s="0">
-        <v>290</v>
+        <v>338.80000000000001</v>
       </c>
       <c r="K297" s="0">
         <v>103</v>
@@ -23081,9 +23966,12 @@
         <v>5</v>
       </c>
       <c r="X297" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y297" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y297" s="0" t="s">
+      <c r="Z297" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23107,7 +23995,7 @@
         <v>180</v>
       </c>
       <c r="G298" s="0">
-        <v>45.396956521739114</v>
+        <v>11.994333333333321</v>
       </c>
       <c r="H298" s="0">
         <v>206</v>
@@ -23158,9 +24046,12 @@
         <v>5</v>
       </c>
       <c r="X298" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y298" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y298" s="0" t="s">
+      <c r="Z298" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23193,7 +24084,7 @@
         <v>1</v>
       </c>
       <c r="J299" s="0">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="K299" s="0">
         <v>96</v>
@@ -23235,9 +24126,12 @@
         <v>5</v>
       </c>
       <c r="X299" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y299" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y299" s="0" t="s">
+      <c r="Z299" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23270,7 +24164,7 @@
         <v>15</v>
       </c>
       <c r="J300" s="0">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="K300" s="0">
         <v>116</v>
@@ -23312,9 +24206,12 @@
         <v>5</v>
       </c>
       <c r="X300" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y300" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y300" s="0" t="s">
+      <c r="Z300" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23347,7 +24244,7 @@
         <v>55</v>
       </c>
       <c r="J301" s="0">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="K301" s="0">
         <v>106</v>
@@ -23389,9 +24286,12 @@
         <v>5</v>
       </c>
       <c r="X301" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y301" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y301" s="0" t="s">
+      <c r="Z301" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23424,7 +24324,7 @@
         <v>14</v>
       </c>
       <c r="J302" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K302" s="0">
         <v>25</v>
@@ -23466,9 +24366,12 @@
         <v>5</v>
       </c>
       <c r="X302" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y302" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y302" s="0" t="s">
+      <c r="Z302" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23543,9 +24446,12 @@
         <v>5</v>
       </c>
       <c r="X303" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y303" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y303" s="0" t="s">
+      <c r="Z303" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23578,7 +24484,7 @@
         <v>2</v>
       </c>
       <c r="J304" s="0">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="K304" s="0">
         <v>64</v>
@@ -23620,9 +24526,12 @@
         <v>5</v>
       </c>
       <c r="X304" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y304" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y304" s="0" t="s">
+      <c r="Z304" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23655,7 +24564,7 @@
         <v>0</v>
       </c>
       <c r="J305" s="0">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="K305" s="0">
         <v>57</v>
@@ -23697,9 +24606,12 @@
         <v>5</v>
       </c>
       <c r="X305" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y305" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y305" s="0" t="s">
+      <c r="Z305" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23723,7 +24635,7 @@
         <v>42</v>
       </c>
       <c r="G306" s="0">
-        <v>119.77722222222236</v>
+        <v>1.5529411764707222</v>
       </c>
       <c r="H306" s="0">
         <v>34</v>
@@ -23774,9 +24686,12 @@
         <v>5</v>
       </c>
       <c r="X306" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y306" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y306" s="0" t="s">
+      <c r="Z306" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23851,9 +24766,12 @@
         <v>5</v>
       </c>
       <c r="X307" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y307" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y307" s="0" t="s">
+      <c r="Z307" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23877,7 +24795,7 @@
         <v>42</v>
       </c>
       <c r="G308" s="0">
-        <v>303.70904761904745</v>
+        <v>33.250999999999898</v>
       </c>
       <c r="H308" s="0">
         <v>41</v>
@@ -23928,9 +24846,12 @@
         <v>5</v>
       </c>
       <c r="X308" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y308" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y308" s="0" t="s">
+      <c r="Z308" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -23954,7 +24875,7 @@
         <v>101</v>
       </c>
       <c r="G309" s="0">
-        <v>50.382400000000025</v>
+        <v>21.428750000000008</v>
       </c>
       <c r="H309" s="0">
         <v>80</v>
@@ -24005,9 +24926,12 @@
         <v>5</v>
       </c>
       <c r="X309" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y309" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y309" s="0" t="s">
+      <c r="Z309" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -24031,7 +24955,7 @@
         <v>50</v>
       </c>
       <c r="G310" s="0">
-        <v>55.558421052631608</v>
+        <v>34.202222222222233</v>
       </c>
       <c r="H310" s="0">
         <v>38</v>
@@ -24082,9 +25006,12 @@
         <v>5</v>
       </c>
       <c r="X310" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y310" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y310" s="0" t="s">
+      <c r="Z310" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -24108,7 +25035,7 @@
         <v>29</v>
       </c>
       <c r="G311" s="0">
-        <v>102.84416666666664</v>
+        <v>35.059090909090884</v>
       </c>
       <c r="H311" s="0">
         <v>42</v>
@@ -24159,9 +25086,12 @@
         <v>5</v>
       </c>
       <c r="X311" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y311" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y311" s="0" t="s">
+      <c r="Z311" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -24185,7 +25115,7 @@
         <v>25</v>
       </c>
       <c r="G312" s="0">
-        <v>77.249999999999929</v>
+        <v>34.488571428571319</v>
       </c>
       <c r="H312" s="0">
         <v>16</v>
@@ -24194,7 +25124,7 @@
         <v>12</v>
       </c>
       <c r="J312" s="0">
-        <v>232</v>
+        <v>331</v>
       </c>
       <c r="K312" s="0">
         <v>0</v>
@@ -24236,9 +25166,12 @@
         <v>5</v>
       </c>
       <c r="X312" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y312" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y312" s="0" t="s">
+      <c r="Z312" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -24262,7 +25195,7 @@
         <v>24</v>
       </c>
       <c r="G313" s="0">
-        <v>27.070666666666675</v>
+        <v>1.7821428571428555</v>
       </c>
       <c r="H313" s="0">
         <v>33</v>
@@ -24313,9 +25246,12 @@
         <v>5</v>
       </c>
       <c r="X313" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y313" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y313" s="0" t="s">
+      <c r="Z313" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -24390,9 +25326,12 @@
         <v>6</v>
       </c>
       <c r="X314" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y314" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y314" s="0" t="s">
+      <c r="Z314" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -24467,9 +25406,12 @@
         <v>6</v>
       </c>
       <c r="X315" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y315" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y315" s="0" t="s">
+      <c r="Z315" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -24544,9 +25486,12 @@
         <v>6</v>
       </c>
       <c r="X316" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y316" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y316" s="0" t="s">
+      <c r="Z316" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -24619,9 +25564,12 @@
         <v>6</v>
       </c>
       <c r="X317" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y317" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y317" s="0" t="s">
+      <c r="Z317" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -24696,9 +25644,12 @@
         <v>6</v>
       </c>
       <c r="X318" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y318" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y318" s="0" t="s">
+      <c r="Z318" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -24773,9 +25724,12 @@
         <v>6</v>
       </c>
       <c r="X319" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y319" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y319" s="0" t="s">
+      <c r="Z319" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -24808,7 +25762,7 @@
         <v>0</v>
       </c>
       <c r="J320" s="0">
-        <v>285</v>
+        <v>300.39999999999998</v>
       </c>
       <c r="K320" s="0">
         <v>1</v>
@@ -24850,9 +25804,12 @@
         <v>6</v>
       </c>
       <c r="X320" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y320" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y320" s="0" t="s">
+      <c r="Z320" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -24883,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="J321" s="0">
-        <v>285</v>
+        <v>315.80000000000001</v>
       </c>
       <c r="K321" s="0">
         <v>0</v>
@@ -24925,9 +25882,12 @@
         <v>6</v>
       </c>
       <c r="X321" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y321" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y321" s="0" t="s">
+      <c r="Z321" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -24960,7 +25920,7 @@
         <v>0</v>
       </c>
       <c r="J322" s="0">
-        <v>285</v>
+        <v>331.19999999999999</v>
       </c>
       <c r="K322" s="0">
         <v>1</v>
@@ -25002,9 +25962,12 @@
         <v>6</v>
       </c>
       <c r="X322" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y322" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y322" s="0" t="s">
+      <c r="Z322" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25037,7 +26000,7 @@
         <v>1</v>
       </c>
       <c r="J323" s="0">
-        <v>285</v>
+        <v>346.60000000000002</v>
       </c>
       <c r="K323" s="0">
         <v>1</v>
@@ -25079,9 +26042,12 @@
         <v>6</v>
       </c>
       <c r="X323" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y323" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y323" s="0" t="s">
+      <c r="Z323" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25104,9 +26070,7 @@
       <c r="F324" s="0">
         <v>9</v>
       </c>
-      <c r="G324" s="0">
-        <v>489.75999999999999</v>
-      </c>
+      <c r="G324" s="0"/>
       <c r="H324" s="0">
         <v>1</v>
       </c>
@@ -25156,9 +26120,12 @@
         <v>6</v>
       </c>
       <c r="X324" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y324" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y324" s="0" t="s">
+      <c r="Z324" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25233,9 +26200,12 @@
         <v>6</v>
       </c>
       <c r="X325" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y325" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y325" s="0" t="s">
+      <c r="Z325" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25308,9 +26278,12 @@
         <v>6</v>
       </c>
       <c r="X326" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y326" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y326" s="0" t="s">
+      <c r="Z326" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25383,9 +26356,12 @@
         <v>6</v>
       </c>
       <c r="X327" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y327" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y327" s="0" t="s">
+      <c r="Z327" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25458,9 +26434,12 @@
         <v>6</v>
       </c>
       <c r="X328" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y328" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y328" s="0" t="s">
+      <c r="Z328" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25533,9 +26512,12 @@
         <v>6</v>
       </c>
       <c r="X329" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y329" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y329" s="0" t="s">
+      <c r="Z329" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25608,9 +26590,12 @@
         <v>6</v>
       </c>
       <c r="X330" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y330" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y330" s="0" t="s">
+      <c r="Z330" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25683,9 +26668,12 @@
         <v>6</v>
       </c>
       <c r="X331" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y331" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y331" s="0" t="s">
+      <c r="Z331" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25758,9 +26746,12 @@
         <v>6</v>
       </c>
       <c r="X332" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y332" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y332" s="0" t="s">
+      <c r="Z332" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25833,9 +26824,12 @@
         <v>6</v>
       </c>
       <c r="X333" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y333" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y333" s="0" t="s">
+      <c r="Z333" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25908,9 +26902,12 @@
         <v>6</v>
       </c>
       <c r="X334" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y334" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y334" s="0" t="s">
+      <c r="Z334" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -25983,9 +26980,12 @@
         <v>6</v>
       </c>
       <c r="X335" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y335" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y335" s="0" t="s">
+      <c r="Z335" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -26058,9 +27058,12 @@
         <v>6</v>
       </c>
       <c r="X336" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y336" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y336" s="0" t="s">
+      <c r="Z336" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -26133,9 +27136,12 @@
         <v>6</v>
       </c>
       <c r="X337" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y337" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y337" s="0" t="s">
+      <c r="Z337" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -26166,7 +27172,7 @@
         <v>4</v>
       </c>
       <c r="J338" s="0">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="K338" s="0">
         <v>0</v>
@@ -26208,9 +27214,12 @@
         <v>6</v>
       </c>
       <c r="X338" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y338" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y338" s="0" t="s">
+      <c r="Z338" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -26285,9 +27294,12 @@
         <v>6</v>
       </c>
       <c r="X339" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y339" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y339" s="0" t="s">
+      <c r="Z339" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -26311,7 +27323,7 @@
         <v>4</v>
       </c>
       <c r="G340" s="0">
-        <v>1592.385</v>
+        <v>267.38</v>
       </c>
       <c r="H340" s="0">
         <v>2</v>
@@ -26362,9 +27374,12 @@
         <v>7</v>
       </c>
       <c r="X340" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y340" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y340" s="0" t="s">
+      <c r="Z340" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26388,7 +27403,7 @@
         <v>135</v>
       </c>
       <c r="G341" s="0">
-        <v>125.97599999999977</v>
+        <v>63.034999999999705</v>
       </c>
       <c r="H341" s="0">
         <v>12</v>
@@ -26439,9 +27454,12 @@
         <v>7</v>
       </c>
       <c r="X341" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y341" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y341" s="0" t="s">
+      <c r="Z341" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26516,9 +27534,12 @@
         <v>7</v>
       </c>
       <c r="X342" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y342" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y342" s="0" t="s">
+      <c r="Z342" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26593,9 +27614,12 @@
         <v>7</v>
       </c>
       <c r="X343" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y343" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y343" s="0" t="s">
+      <c r="Z343" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26670,9 +27694,12 @@
         <v>7</v>
       </c>
       <c r="X344" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y344" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y344" s="0" t="s">
+      <c r="Z344" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26747,9 +27774,12 @@
         <v>7</v>
       </c>
       <c r="X345" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y345" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y345" s="0" t="s">
+      <c r="Z345" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26824,9 +27854,12 @@
         <v>7</v>
       </c>
       <c r="X346" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y346" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y346" s="0" t="s">
+      <c r="Z346" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26901,9 +27934,12 @@
         <v>7</v>
       </c>
       <c r="X347" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y347" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y347" s="0" t="s">
+      <c r="Z347" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26978,9 +28014,12 @@
         <v>7</v>
       </c>
       <c r="X348" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y348" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y348" s="0" t="s">
+      <c r="Z348" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27004,7 +28043,7 @@
         <v>117</v>
       </c>
       <c r="G349" s="0">
-        <v>72.440454545454514</v>
+        <v>27.496279069767404</v>
       </c>
       <c r="H349" s="0">
         <v>109</v>
@@ -27055,9 +28094,12 @@
         <v>7</v>
       </c>
       <c r="X349" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y349" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y349" s="0" t="s">
+      <c r="Z349" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27132,9 +28174,12 @@
         <v>7</v>
       </c>
       <c r="X350" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y350" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y350" s="0" t="s">
+      <c r="Z350" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27167,7 +28212,7 @@
         <v>1</v>
       </c>
       <c r="J351" s="0">
-        <v>230</v>
+        <v>230.40000000000001</v>
       </c>
       <c r="K351" s="0">
         <v>56</v>
@@ -27209,9 +28254,12 @@
         <v>7</v>
       </c>
       <c r="X351" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y351" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y351" s="0" t="s">
+      <c r="Z351" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27244,7 +28292,7 @@
         <v>6</v>
       </c>
       <c r="J352" s="0">
-        <v>230</v>
+        <v>230.80000000000001</v>
       </c>
       <c r="K352" s="0">
         <v>52</v>
@@ -27286,9 +28334,12 @@
         <v>7</v>
       </c>
       <c r="X352" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y352" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y352" s="0" t="s">
+      <c r="Z352" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27312,7 +28363,7 @@
         <v>82</v>
       </c>
       <c r="G353" s="0">
-        <v>68.628999999999948</v>
+        <v>36.332307692307644</v>
       </c>
       <c r="H353" s="0">
         <v>112</v>
@@ -27321,7 +28372,7 @@
         <v>31</v>
       </c>
       <c r="J353" s="0">
-        <v>232</v>
+        <v>231.19999999999999</v>
       </c>
       <c r="K353" s="0">
         <v>40</v>
@@ -27363,9 +28414,12 @@
         <v>7</v>
       </c>
       <c r="X353" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y353" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y353" s="0" t="s">
+      <c r="Z353" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27398,7 +28452,7 @@
         <v>31</v>
       </c>
       <c r="J354" s="0">
-        <v>232</v>
+        <v>231.59999999999999</v>
       </c>
       <c r="K354" s="0">
         <v>63</v>
@@ -27440,9 +28494,12 @@
         <v>7</v>
       </c>
       <c r="X354" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y354" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y354" s="0" t="s">
+      <c r="Z354" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27466,7 +28523,7 @@
         <v>138</v>
       </c>
       <c r="G355" s="0">
-        <v>16.023584905660318</v>
+        <v>2.783846153846099</v>
       </c>
       <c r="H355" s="0">
         <v>107</v>
@@ -27517,9 +28574,12 @@
         <v>7</v>
       </c>
       <c r="X355" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y355" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y355" s="0" t="s">
+      <c r="Z355" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27552,7 +28612,7 @@
         <v>27</v>
       </c>
       <c r="J356" s="0">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K356" s="0">
         <v>50</v>
@@ -27594,9 +28654,12 @@
         <v>7</v>
       </c>
       <c r="X356" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y356" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y356" s="0" t="s">
+      <c r="Z356" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27620,7 +28683,7 @@
         <v>155</v>
       </c>
       <c r="G357" s="0">
-        <v>33.4286666666667</v>
+        <v>3.4233898305085106</v>
       </c>
       <c r="H357" s="0">
         <v>92</v>
@@ -27671,9 +28734,12 @@
         <v>7</v>
       </c>
       <c r="X357" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y357" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y357" s="0" t="s">
+      <c r="Z357" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27706,7 +28772,7 @@
         <v>5</v>
       </c>
       <c r="J358" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K358" s="0">
         <v>58</v>
@@ -27748,9 +28814,12 @@
         <v>7</v>
       </c>
       <c r="X358" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y358" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y358" s="0" t="s">
+      <c r="Z358" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27774,7 +28843,7 @@
         <v>217</v>
       </c>
       <c r="G359" s="0">
-        <v>22.572473118279557</v>
+        <v>14.419130434782591</v>
       </c>
       <c r="H359" s="0">
         <v>160</v>
@@ -27825,9 +28894,12 @@
         <v>7</v>
       </c>
       <c r="X359" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y359" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y359" s="0" t="s">
+      <c r="Z359" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27851,7 +28923,7 @@
         <v>116</v>
       </c>
       <c r="G360" s="0">
-        <v>84.961384615384617</v>
+        <v>26.595245901639348</v>
       </c>
       <c r="H360" s="0">
         <v>139</v>
@@ -27902,9 +28974,12 @@
         <v>7</v>
       </c>
       <c r="X360" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y360" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y360" s="0" t="s">
+      <c r="Z360" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -27928,7 +29003,7 @@
         <v>65</v>
       </c>
       <c r="G361" s="0">
-        <v>81.939655172413794</v>
+        <v>53.156071428571423</v>
       </c>
       <c r="H361" s="0">
         <v>86</v>
@@ -27979,9 +29054,12 @@
         <v>7</v>
       </c>
       <c r="X361" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y361" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y361" s="0" t="s">
+      <c r="Z361" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28005,7 +29083,7 @@
         <v>41</v>
       </c>
       <c r="G362" s="0">
-        <v>228.50214285714284</v>
+        <v>44.90125000000004</v>
       </c>
       <c r="H362" s="0">
         <v>99</v>
@@ -28056,9 +29134,12 @@
         <v>7</v>
       </c>
       <c r="X362" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y362" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y362" s="0" t="s">
+      <c r="Z362" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28082,7 +29163,7 @@
         <v>83</v>
       </c>
       <c r="G363" s="0">
-        <v>65.275625000000034</v>
+        <v>45.301333333333346</v>
       </c>
       <c r="H363" s="0">
         <v>44</v>
@@ -28133,9 +29214,12 @@
         <v>7</v>
       </c>
       <c r="X363" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y363" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y363" s="0" t="s">
+      <c r="Z363" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28159,7 +29243,7 @@
         <v>72</v>
       </c>
       <c r="G364" s="0">
-        <v>134.07533333333345</v>
+        <v>74.007037037037136</v>
       </c>
       <c r="H364" s="0">
         <v>72</v>
@@ -28168,7 +29252,7 @@
         <v>36</v>
       </c>
       <c r="J364" s="0">
-        <v>359</v>
+        <v>232</v>
       </c>
       <c r="K364" s="0">
         <v>0</v>
@@ -28210,9 +29294,12 @@
         <v>7</v>
       </c>
       <c r="X364" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y364" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y364" s="0" t="s">
+      <c r="Z364" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28236,7 +29323,7 @@
         <v>63</v>
       </c>
       <c r="G365" s="0">
-        <v>44.207297297297288</v>
+        <v>20.019999999999985</v>
       </c>
       <c r="H365" s="0">
         <v>57</v>
@@ -28287,9 +29374,12 @@
         <v>7</v>
       </c>
       <c r="X365" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y365" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="Y365" s="0" t="s">
+      <c r="Z365" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28362,9 +29452,12 @@
         <v>8</v>
       </c>
       <c r="X366" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y366" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y366" s="0" t="s">
+      <c r="Z366" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28437,9 +29530,12 @@
         <v>8</v>
       </c>
       <c r="X367" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y367" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y367" s="0" t="s">
+      <c r="Z367" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28514,9 +29610,12 @@
         <v>8</v>
       </c>
       <c r="X368" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y368" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y368" s="0" t="s">
+      <c r="Z368" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28591,9 +29690,12 @@
         <v>8</v>
       </c>
       <c r="X369" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y369" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y369" s="0" t="s">
+      <c r="Z369" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28668,9 +29770,12 @@
         <v>8</v>
       </c>
       <c r="X370" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y370" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y370" s="0" t="s">
+      <c r="Z370" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28745,9 +29850,12 @@
         <v>8</v>
       </c>
       <c r="X371" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y371" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y371" s="0" t="s">
+      <c r="Z371" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28780,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="J372" s="0">
-        <v>210</v>
+        <v>212.80000000000001</v>
       </c>
       <c r="K372" s="0">
         <v>22</v>
@@ -28822,9 +29930,12 @@
         <v>8</v>
       </c>
       <c r="X372" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y372" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y372" s="0" t="s">
+      <c r="Z372" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28857,7 +29968,7 @@
         <v>0</v>
       </c>
       <c r="J373" s="0">
-        <v>210</v>
+        <v>215.59999999999999</v>
       </c>
       <c r="K373" s="0">
         <v>29</v>
@@ -28899,9 +30010,12 @@
         <v>8</v>
       </c>
       <c r="X373" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y373" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y373" s="0" t="s">
+      <c r="Z373" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -28934,7 +30048,7 @@
         <v>3</v>
       </c>
       <c r="J374" s="0">
-        <v>210</v>
+        <v>218.40000000000001</v>
       </c>
       <c r="K374" s="0">
         <v>38</v>
@@ -28976,9 +30090,12 @@
         <v>8</v>
       </c>
       <c r="X374" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y374" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y374" s="0" t="s">
+      <c r="Z374" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29011,7 +30128,7 @@
         <v>3</v>
       </c>
       <c r="J375" s="0">
-        <v>210</v>
+        <v>221.19999999999999</v>
       </c>
       <c r="K375" s="0">
         <v>33</v>
@@ -29053,9 +30170,12 @@
         <v>8</v>
       </c>
       <c r="X375" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y375" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y375" s="0" t="s">
+      <c r="Z375" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29079,7 +30199,7 @@
         <v>86</v>
       </c>
       <c r="G376" s="0">
-        <v>57.189999999999976</v>
+        <v>1.1058536585365817</v>
       </c>
       <c r="H376" s="0">
         <v>92</v>
@@ -29130,9 +30250,12 @@
         <v>8</v>
       </c>
       <c r="X376" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y376" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y376" s="0" t="s">
+      <c r="Z376" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29207,9 +30330,12 @@
         <v>8</v>
       </c>
       <c r="X377" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y377" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y377" s="0" t="s">
+      <c r="Z377" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29233,7 +30359,7 @@
         <v>109</v>
       </c>
       <c r="G378" s="0">
-        <v>9.5423728813559077</v>
+        <v>1.2774137931034257</v>
       </c>
       <c r="H378" s="0">
         <v>105</v>
@@ -29284,9 +30410,12 @@
         <v>8</v>
       </c>
       <c r="X378" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y378" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y378" s="0" t="s">
+      <c r="Z378" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29361,9 +30490,12 @@
         <v>8</v>
       </c>
       <c r="X379" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y379" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y379" s="0" t="s">
+      <c r="Z379" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29387,7 +30519,7 @@
         <v>71</v>
       </c>
       <c r="G380" s="0">
-        <v>9.5604444444444923</v>
+        <v>0.68750000000004319</v>
       </c>
       <c r="H380" s="0">
         <v>67</v>
@@ -29438,9 +30570,12 @@
         <v>8</v>
       </c>
       <c r="X380" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y380" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y380" s="0" t="s">
+      <c r="Z380" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29515,9 +30650,12 @@
         <v>8</v>
       </c>
       <c r="X381" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y381" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y381" s="0" t="s">
+      <c r="Z381" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29592,9 +30730,12 @@
         <v>8</v>
       </c>
       <c r="X382" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y382" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y382" s="0" t="s">
+      <c r="Z382" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29618,7 +30759,7 @@
         <v>79</v>
       </c>
       <c r="G383" s="0">
-        <v>43.390888888888789</v>
+        <v>0.92386363636354962</v>
       </c>
       <c r="H383" s="0">
         <v>93</v>
@@ -29669,9 +30810,12 @@
         <v>8</v>
       </c>
       <c r="X383" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y383" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y383" s="0" t="s">
+      <c r="Z383" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29695,7 +30839,7 @@
         <v>107</v>
       </c>
       <c r="G384" s="0">
-        <v>76.096829268292751</v>
+        <v>3.2410000000000814</v>
       </c>
       <c r="H384" s="0">
         <v>102</v>
@@ -29704,7 +30848,7 @@
         <v>7</v>
       </c>
       <c r="J384" s="0">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K384" s="0">
         <v>41</v>
@@ -29746,9 +30890,12 @@
         <v>8</v>
       </c>
       <c r="X384" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y384" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y384" s="0" t="s">
+      <c r="Z384" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29823,9 +30970,12 @@
         <v>8</v>
       </c>
       <c r="X385" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y385" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y385" s="0" t="s">
+      <c r="Z385" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29900,9 +31050,12 @@
         <v>8</v>
       </c>
       <c r="X386" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y386" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y386" s="0" t="s">
+      <c r="Z386" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -29926,7 +31079,7 @@
         <v>60</v>
       </c>
       <c r="G387" s="0">
-        <v>72.409743589743542</v>
+        <v>53.191351351351315</v>
       </c>
       <c r="H387" s="0">
         <v>119</v>
@@ -29977,9 +31130,12 @@
         <v>8</v>
       </c>
       <c r="X387" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y387" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y387" s="0" t="s">
+      <c r="Z387" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30003,7 +31159,7 @@
         <v>74</v>
       </c>
       <c r="G388" s="0">
-        <v>102.15085714285713</v>
+        <v>50.358787878787872</v>
       </c>
       <c r="H388" s="0">
         <v>93</v>
@@ -30054,9 +31210,12 @@
         <v>8</v>
       </c>
       <c r="X388" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y388" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y388" s="0" t="s">
+      <c r="Z388" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30080,7 +31239,7 @@
         <v>38</v>
       </c>
       <c r="G389" s="0">
-        <v>80.419411764705913</v>
+        <v>44.486250000000013</v>
       </c>
       <c r="H389" s="0">
         <v>75</v>
@@ -30131,9 +31290,12 @@
         <v>8</v>
       </c>
       <c r="X389" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y389" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y389" s="0" t="s">
+      <c r="Z389" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30166,7 +31328,7 @@
         <v>17</v>
       </c>
       <c r="J390" s="0">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="K390" s="0">
         <v>0</v>
@@ -30208,9 +31370,12 @@
         <v>8</v>
       </c>
       <c r="X390" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y390" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y390" s="0" t="s">
+      <c r="Z390" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30285,9 +31450,12 @@
         <v>8</v>
       </c>
       <c r="X391" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y391" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y391" s="0" t="s">
+      <c r="Z391" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30362,9 +31530,12 @@
         <v>9</v>
       </c>
       <c r="X392" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y392" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y392" s="0" t="s">
+      <c r="Z392" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30388,7 +31559,7 @@
         <v>100</v>
       </c>
       <c r="G393" s="0">
-        <v>351.09000000000009</v>
+        <v>91.085000000000178</v>
       </c>
       <c r="H393" s="0">
         <v>5</v>
@@ -30439,9 +31610,12 @@
         <v>9</v>
       </c>
       <c r="X393" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y393" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y393" s="0" t="s">
+      <c r="Z393" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30516,9 +31690,12 @@
         <v>9</v>
       </c>
       <c r="X394" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y394" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y394" s="0" t="s">
+      <c r="Z394" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30593,9 +31770,12 @@
         <v>9</v>
       </c>
       <c r="X395" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y395" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y395" s="0" t="s">
+      <c r="Z395" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30670,9 +31850,12 @@
         <v>9</v>
       </c>
       <c r="X396" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y396" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y396" s="0" t="s">
+      <c r="Z396" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30747,9 +31930,12 @@
         <v>9</v>
       </c>
       <c r="X397" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y397" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y397" s="0" t="s">
+      <c r="Z397" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30782,7 +31968,7 @@
         <v>5</v>
       </c>
       <c r="J398" s="0">
-        <v>265</v>
+        <v>280.39999999999998</v>
       </c>
       <c r="K398" s="0">
         <v>14</v>
@@ -30824,9 +32010,12 @@
         <v>9</v>
       </c>
       <c r="X398" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y398" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y398" s="0" t="s">
+      <c r="Z398" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30859,7 +32048,7 @@
         <v>2</v>
       </c>
       <c r="J399" s="0">
-        <v>265</v>
+        <v>295.80000000000001</v>
       </c>
       <c r="K399" s="0">
         <v>21</v>
@@ -30901,9 +32090,12 @@
         <v>9</v>
       </c>
       <c r="X399" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y399" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y399" s="0" t="s">
+      <c r="Z399" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -30936,7 +32128,7 @@
         <v>1</v>
       </c>
       <c r="J400" s="0">
-        <v>265</v>
+        <v>311.19999999999999</v>
       </c>
       <c r="K400" s="0">
         <v>30</v>
@@ -30978,9 +32170,12 @@
         <v>9</v>
       </c>
       <c r="X400" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y400" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y400" s="0" t="s">
+      <c r="Z400" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31013,7 +32208,7 @@
         <v>0</v>
       </c>
       <c r="J401" s="0">
-        <v>265</v>
+        <v>326.60000000000002</v>
       </c>
       <c r="K401" s="0">
         <v>22</v>
@@ -31055,9 +32250,12 @@
         <v>9</v>
       </c>
       <c r="X401" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y401" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y401" s="0" t="s">
+      <c r="Z401" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31132,9 +32330,12 @@
         <v>9</v>
       </c>
       <c r="X402" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y402" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y402" s="0" t="s">
+      <c r="Z402" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31209,9 +32410,12 @@
         <v>9</v>
       </c>
       <c r="X403" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y403" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y403" s="0" t="s">
+      <c r="Z403" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31286,9 +32490,12 @@
         <v>9</v>
       </c>
       <c r="X404" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y404" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y404" s="0" t="s">
+      <c r="Z404" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31363,9 +32570,12 @@
         <v>9</v>
       </c>
       <c r="X405" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y405" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y405" s="0" t="s">
+      <c r="Z405" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31440,9 +32650,12 @@
         <v>9</v>
       </c>
       <c r="X406" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y406" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y406" s="0" t="s">
+      <c r="Z406" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31517,9 +32730,12 @@
         <v>9</v>
       </c>
       <c r="X407" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y407" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y407" s="0" t="s">
+      <c r="Z407" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31552,7 +32768,7 @@
         <v>9</v>
       </c>
       <c r="J408" s="0">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="K408" s="0">
         <v>42</v>
@@ -31594,9 +32810,12 @@
         <v>9</v>
       </c>
       <c r="X408" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y408" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y408" s="0" t="s">
+      <c r="Z408" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31629,7 +32848,7 @@
         <v>4</v>
       </c>
       <c r="J409" s="0">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="K409" s="0">
         <v>62</v>
@@ -31671,9 +32890,12 @@
         <v>9</v>
       </c>
       <c r="X409" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y409" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y409" s="0" t="s">
+      <c r="Z409" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31748,9 +32970,12 @@
         <v>9</v>
       </c>
       <c r="X410" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y410" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y410" s="0" t="s">
+      <c r="Z410" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31825,9 +33050,12 @@
         <v>9</v>
       </c>
       <c r="X411" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y411" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y411" s="0" t="s">
+      <c r="Z411" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31851,7 +33079,7 @@
         <v>28</v>
       </c>
       <c r="G412" s="0">
-        <v>235.21117647058827</v>
+        <v>4.8087499999999928</v>
       </c>
       <c r="H412" s="0">
         <v>49</v>
@@ -31902,9 +33130,12 @@
         <v>9</v>
       </c>
       <c r="X412" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y412" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y412" s="0" t="s">
+      <c r="Z412" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31979,9 +33210,12 @@
         <v>9</v>
       </c>
       <c r="X413" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y413" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y413" s="0" t="s">
+      <c r="Z413" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -32005,7 +33239,7 @@
         <v>89</v>
       </c>
       <c r="G414" s="0">
-        <v>100.49000000000007</v>
+        <v>61.705000000000076</v>
       </c>
       <c r="H414" s="0">
         <v>21</v>
@@ -32056,9 +33290,12 @@
         <v>9</v>
       </c>
       <c r="X414" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y414" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y414" s="0" t="s">
+      <c r="Z414" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -32133,9 +33370,12 @@
         <v>9</v>
       </c>
       <c r="X415" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y415" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y415" s="0" t="s">
+      <c r="Z415" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -32210,9 +33450,12 @@
         <v>9</v>
       </c>
       <c r="X416" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y416" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y416" s="0" t="s">
+      <c r="Z416" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -32287,9 +33530,12 @@
         <v>9</v>
       </c>
       <c r="X417" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y417" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Y417" s="0" t="s">
+      <c r="Z417" s="0" t="s">
         <v>49</v>
       </c>
     </row>
